--- a/strain life.xlsx
+++ b/strain life.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16704" windowHeight="11208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16704" windowHeight="11208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>b</t>
+  </si>
   <si>
     <t>nf</t>
   </si>
@@ -39,6 +43,27 @@
   </si>
   <si>
     <t>eea</t>
+  </si>
+  <si>
+    <t>e_a</t>
+  </si>
+  <si>
+    <t>e_pa</t>
+  </si>
+  <si>
+    <t>e_ea</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>elastic</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -74,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +685,835 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Strain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0428328733063799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33280967430583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.189614330931001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.566699731636799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.463485648493901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.08167703849301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>468.822783890724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888.33596617216404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3028.7729824457501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4257.8386300722796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9118.3176293046708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31037.524412993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54244.010395514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185854.89157814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365416.23757221102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>841665.72653753904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1944612.36699794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2658770.7563719801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11145181.4365237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.14055731078477501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1521030746807102E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3573349883865601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4028662093855397E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0958682111799201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.46249591069255E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8061283993564696E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9291729566093195E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6156046841455603E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.66841535587689E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.50984117752004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5155096964646603E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.71091334755761E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2745247444223098E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.94471220498354E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4717038259489898E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5658472247633E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4709358745632201E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1317997144482798E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Plastic Strain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15142672790901138"/>
+                  <c:y val="-0.10313466025080198"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0428328733063799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33280967430583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.189614330931001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.566699731636799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.463485648493901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.08167703849301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>468.822783890724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888.33596617216404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3028.7729824457501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4257.8386300722796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9118.3176293046708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31037.524412993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54244.010395514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185854.89157814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365416.23757221102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>841665.72653753904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1944612.36699794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2658770.7563719801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11145181.4365237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.5630560997956398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1409912937353197E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5020068379375399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.70313228080929E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0263978376723999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5475239273958697E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3634077876321202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.52254980920153E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5475850611808404E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1797701215909402E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0674064707972E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3206092876563101E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9941188562585507E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8547919653926202E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4209990511318801E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3636301035699901E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6643533788322996E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.18033760950935E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3056676170778901E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Elastic Strain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9066054243219601E-3"/>
+                  <c:y val="8.6657553222513853E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0428328733063799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33280967430583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.189614330931001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.566699731636799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.463485648493901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.08167703849301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>468.822783890724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888.33596617216404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3028.7729824457501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4257.8386300722796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9118.3176293046708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31037.524412993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54244.010395514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185854.89157814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365416.23757221102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>841665.72653753904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1944612.36699794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2658770.7563719801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11145181.4365237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6.4926749786818616E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0111117809453904E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5532815044902025E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6997339285762497E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0694703735075202E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.007743517952963E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4427206117243494E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4066231474077893E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9608461780274761E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1504383437177958E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2031005304403197E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3834487676990292E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6209721589950247E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2359768247683836E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9205022144722212E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4580675249132899E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5581828713844676E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4647555369537106E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1294940468312021E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424019648"/>
+        <c:axId val="424029448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424019648"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424029448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424029448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424019648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1215,6 +2069,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1229,6 +2599,41 @@
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1515,8 +2920,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>631</v>
+      </c>
+      <c r="C2">
+        <v>1.695E-2</v>
+      </c>
+      <c r="D2">
+        <v>227</v>
+      </c>
+      <c r="E2">
+        <f>A2-C2</f>
+        <v>3.2499999999999994E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>574</v>
+      </c>
+      <c r="C3">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <v>1030</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">A3-C3</f>
+        <v>2.9500000000000004E-3</v>
+      </c>
+      <c r="H3">
+        <f>2^-0.711</f>
+        <v>0.61089655083675032</v>
+      </c>
+      <c r="I3">
+        <f>2^-0.059</f>
+        <v>0.95992926103890808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="B4">
+        <v>505</v>
+      </c>
+      <c r="C4">
+        <v>1.9300000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>6450</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.5699999999999994E-3</v>
+      </c>
+      <c r="H4">
+        <f>0.8845/H3</f>
+        <v>1.4478719822341322</v>
+      </c>
+      <c r="I4">
+        <f>0.0044/I3</f>
+        <v>4.5836710876361736E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>472</v>
+      </c>
+      <c r="C5">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="D5">
+        <v>22250</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="I5">
+        <f>I4*29007547.5/1000</f>
+        <v>132.96105679898295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="B6">
+        <v>455</v>
+      </c>
+      <c r="D6">
+        <v>110000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,123 +3071,328 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="B2">
-        <v>631</v>
-      </c>
-      <c r="C2">
-        <v>1.695E-2</v>
-      </c>
-      <c r="D2">
-        <v>227</v>
-      </c>
-      <c r="E2">
-        <f>A2-C2</f>
-        <v>3.2499999999999994E-3</v>
+      <c r="A2" s="1">
+        <v>3.0428328733063799</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.14055731078477501</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.5630560997956398E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D20" si="0">B2-C2</f>
+        <v>6.4926749786818616E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0.16259999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.01</v>
-      </c>
-      <c r="B3">
-        <v>574</v>
-      </c>
-      <c r="C3">
-        <v>7.0499999999999998E-3</v>
-      </c>
-      <c r="D3">
-        <v>1030</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">A3-C3</f>
-        <v>2.9500000000000004E-3</v>
-      </c>
-      <c r="H3">
-        <f>2^-0.711</f>
-        <v>0.61089655083675032</v>
+      <c r="A3" s="1">
+        <v>5.33280967430583</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.1521030746807102E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1409912937353197E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0111117809453904E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
       <c r="I3">
-        <f>2^-0.059</f>
-        <v>0.95992926103890808</v>
+        <v>-0.68799999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="B4">
-        <v>505</v>
-      </c>
-      <c r="C4">
-        <v>1.9300000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <v>6450</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="1">
+        <v>15.189614330931001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.3573349883865601E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5020068379375399E-2</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>2.5699999999999994E-3</v>
-      </c>
-      <c r="H4">
-        <f>0.8845/H3</f>
-        <v>1.4478719822341322</v>
+        <v>8.5532815044902025E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
       <c r="I4">
-        <f>0.0044/I3</f>
-        <v>4.5836710876361736E-3</v>
+        <v>2.3599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B5">
-        <v>472</v>
-      </c>
-      <c r="C5">
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="D5">
-        <v>22250</v>
-      </c>
-      <c r="E5">
+      <c r="A5" s="1">
+        <v>26.566699731636799</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.4028662093855397E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.70313228080929E-2</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>2.3600000000000001E-3</v>
+        <v>1.6997339285762497E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>I4*29007547.5/1000</f>
-        <v>132.96105679898295</v>
+        <v>-0.16500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="B6">
-        <v>455</v>
-      </c>
-      <c r="D6">
-        <v>110000</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="1">
+        <v>55.463485648493901</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.0958682111799201E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0263978376723999E-2</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2.3E-3</v>
+        <v>1.0694703735075202E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>181.08167703849301</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.46249591069255E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.5475239273958697E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.007743517952963E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>468.822783890724</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.8061283993564696E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.3634077876321202E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4427206117243494E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>888.33596617216404</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.9291729566093195E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.52254980920153E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4066231474077893E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3028.7729824457501</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.6156046841455603E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.5475850611808404E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9608461780274761E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4257.8386300722796</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.66841535587689E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1797701215909402E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1504383437177958E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9118.3176293046708</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.50984117752004E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.0674064707972E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2031005304403197E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>31037.524412993</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.5155096964646603E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.3206092876563101E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3834487676990292E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>54244.010395514</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.71091334755761E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.9941188562585507E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6209721589950247E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>185854.89157814</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.2745247444223098E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.8547919653926202E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2359768247683836E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>365416.23757221102</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.94471220498354E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.4209990511318801E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9205022144722212E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>841665.72653753904</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.4717038259489898E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.3636301035699901E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4580675249132899E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1944612.36699794</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5658472247633E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.6643533788322996E-6</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5581828713844676E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2658770.7563719801</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.4709358745632201E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.18033760950935E-6</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4647555369537106E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>11145181.4365237</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.1317997144482798E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.3056676170778901E-6</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1294940468312021E-3</v>
       </c>
     </row>
   </sheetData>
